--- a/biology/Médecine/Célestin_Sieur/Célestin_Sieur.xlsx
+++ b/biology/Médecine/Célestin_Sieur/Célestin_Sieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Célestin Sieur né le 27 décembre 1860 à La Faye et mort le 12 juin 1955 à Paris, est un chirurgien militaire français, médecin général inspecteur. Il a été nommé président de l'Académie nationale de médecine en 1939.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Célestin Sieur, fils de Pierre Sieur, propriétaire cultivateur, et de Marie Queron. Après avoir fréquenté l'école communale et avoir été initié aux débuts du latin et du grec par le curé du village, Célestin Sieur concourt pour une bourse. En 1874, il est admis, et rejoint son frère qui vient d'être nommé au collège de Fontenay-le-Comte. Sous la direction de ce frère, il conquiert ses diplômes de l'enseignement secondaire. François Picavet qui, préparait l'agrégation de philosophie fut, à Fontenay-le Comte, son professeur de philosophie. À l'issue de ses études à Fontenay-le-Comte, son frère aîné l'oriente définitivement vers les études médicales. 
 Le 1er décembre 1878, Sieur arrive à Bordeaux à la Faculté de Médecine. Tout en suivant les cours et les travaux pratiques, il obtient, grâce à l'intervention d'un ami de sa famille, une place de maître surveillant dans une école libre, ce qui lui assure le vivre et le couvert dans des conditions modestes. Il a comme professeurs Demons en chirurgie[note 1], Pitres en médecine[note 2] et Badal en ophtalmologie[note 3].
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Carrière militaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il entre le 13 septembre 1881, à École du service de santé des armées de Bordeaux ; Interne des hôpitaux, il enseigne l'anatomie en qualité de moniteur et chargé de conférences d'anatomie à la Maternité. Après avoir soutenu, sous la présidence de son maître Pitres, une thèse, honorée par une médaille d'or, sur la percussion métallique combinée à l'auscultation dans le diagnostic des épanchements liquides de la plèvre (signe du sou), il est reçu au doctorat de médecine en 1883. 
 1883 : Médecin stagiaire, chirurgien militaire au Val-de-Grâce.
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De la percussion métallique combinée à l'auscultation dans le diagnostic des épanchements liquides de la plèvre, Bordeaux , 1883
 Le Service de santé pendant la guerre 1914-1918, [S.l.], [s.n.] , [ca 1930]
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Membre de la Société parisienne d'Otologie, de Laryngologie et de Rhinologie en 1909, président en 1913.
 Élu membre de l'Académie nationale de médecine, section pathologie chirurgicale, le 3 décembre 1918, suite de l'assassinat du professeur Samuel Pozzi. Président pour 1939. Élu Membre émérite le 18 novembre 1952.
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,9 +682,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand-croix de la Légion d'honneur le 15 avril 1954 [1].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand-croix de la Légion d'honneur le 15 avril 1954 .</t>
         </is>
       </c>
     </row>
@@ -674,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C%C3%A9lestin_Sieur</t>
+          <t>Célestin_Sieur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,7 +714,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La Promotion 1956 de École du service de santé des armées de Lyon-Bron porte le nom de "Médecin général inspecteur Sieur".
 Le Collège de Chirurgie d'Édimbourg, désirant honorer le représentant du Service de santé français, le reçut dans son sein comme « honorary fellow » en 1919
